--- a/reportes/RI10.10.2.67.xlsx
+++ b/reportes/RI10.10.2.67.xlsx
@@ -40,19 +40,19 @@
     <t>No. Expediente Clinico</t>
   </si>
   <si>
-    <t>TOLEDO</t>
-  </si>
-  <si>
-    <t>ORTIZ</t>
-  </si>
-  <si>
-    <t>CARLOS</t>
-  </si>
-  <si>
-    <t>RENE</t>
-  </si>
-  <si>
-    <t>7684/201760525</t>
+    <t>MACARIO</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
+    <t>OSCAR</t>
+  </si>
+  <si>
+    <t>ALFREDO</t>
+  </si>
+  <si>
+    <t>7863/201760947</t>
   </si>
   <si>
     <t xml:space="preserve">Dirección actual </t>
@@ -91,13 +91,13 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t>1949-12-18</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>RETALHULEHU CHAMPERICO</t>
+    <t>0002-12-08</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>GUATEMALA</t>
   </si>
   <si>
     <t>MASCULINO</t>
@@ -118,13 +118,13 @@
     <t>SOLTERO</t>
   </si>
   <si>
-    <t>CONSERJE</t>
-  </si>
-  <si>
-    <t>GUATEMALTECO</t>
-  </si>
-  <si>
-    <t>2853911271107</t>
+    <t>ESTUDIANTE</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>P 472 F 372 L 148</t>
   </si>
   <si>
     <t>Nombre del Cónyugue</t>
@@ -148,16 +148,16 @@
     <t>Dirección</t>
   </si>
   <si>
-    <t>JUANA  CALIZ ORTIZ</t>
-  </si>
-  <si>
-    <t>HERMANA</t>
-  </si>
-  <si>
-    <t>12 AV B 12-61 Z, 1</t>
-  </si>
-  <si>
-    <t>22202609</t>
+    <t>ZOILA AGUILAR</t>
+  </si>
+  <si>
+    <t>MADRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39CALLE 3AV 39-23 Z.8 </t>
+  </si>
+  <si>
+    <t>34694016</t>
   </si>
   <si>
     <t xml:space="preserve">Otras Hospitalizaciones </t>

--- a/reportes/RI10.10.2.67.xlsx
+++ b/reportes/RI10.10.2.67.xlsx
@@ -40,19 +40,19 @@
     <t>No. Expediente Clinico</t>
   </si>
   <si>
-    <t>MACARIO</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>OSCAR</t>
-  </si>
-  <si>
-    <t>ALFREDO</t>
-  </si>
-  <si>
-    <t>7863/201760947</t>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>ENRRIQUE</t>
+  </si>
+  <si>
+    <t>CLAROS</t>
+  </si>
+  <si>
+    <t>/201761498</t>
   </si>
   <si>
     <t xml:space="preserve">Dirección actual </t>
@@ -91,13 +91,13 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t>0002-12-08</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>GUATEMALA</t>
+    <t>1948-08-12</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>HONDURAS</t>
   </si>
   <si>
     <t>MASCULINO</t>
@@ -118,13 +118,13 @@
     <t>SOLTERO</t>
   </si>
   <si>
-    <t>ESTUDIANTE</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>P 472 F 372 L 148</t>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>HONDUREÑO</t>
+  </si>
+  <si>
+    <t>DOC EXT. 0508-1948-00064</t>
   </si>
   <si>
     <t>Nombre del Cónyugue</t>
@@ -148,16 +148,16 @@
     <t>Dirección</t>
   </si>
   <si>
-    <t>ZOILA AGUILAR</t>
-  </si>
-  <si>
-    <t>MADRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39CALLE 3AV 39-23 Z.8 </t>
-  </si>
-  <si>
-    <t>34694016</t>
+    <t>GUILLERMO SANTOS</t>
+  </si>
+  <si>
+    <t>ENCARGADO</t>
+  </si>
+  <si>
+    <t>CORINTO HONDURAS</t>
+  </si>
+  <si>
+    <t>97431622</t>
   </si>
   <si>
     <t xml:space="preserve">Otras Hospitalizaciones </t>

--- a/reportes/RI10.10.2.67.xlsx
+++ b/reportes/RI10.10.2.67.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="82">
   <si>
     <t xml:space="preserve">HOSPITAL GENERAL SAN JUAN DE DIOS </t>
   </si>
@@ -40,19 +40,19 @@
     <t>No. Expediente Clinico</t>
   </si>
   <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>ENRRIQUE</t>
-  </si>
-  <si>
-    <t>CLAROS</t>
-  </si>
-  <si>
-    <t>/201761498</t>
+    <t>AJCHE</t>
+  </si>
+  <si>
+    <t>IXCOT</t>
+  </si>
+  <si>
+    <t>CORINA</t>
+  </si>
+  <si>
+    <t>ISABEL</t>
+  </si>
+  <si>
+    <t>2008-74954/201757694</t>
   </si>
   <si>
     <t xml:space="preserve">Dirección actual </t>
@@ -70,7 +70,16 @@
     <t>Teléfono</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>10 AVE. B 27-46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COL. BETHANIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUATEMALA </t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t xml:space="preserve">Dirección habitual </t>
@@ -91,16 +100,13 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t>1948-08-12</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>HONDURAS</t>
-  </si>
-  <si>
-    <t>MASCULINO</t>
+    <t>28/5/1969</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>FEMENINO</t>
   </si>
   <si>
     <t>Estado Civil</t>
@@ -115,16 +121,16 @@
     <t>No. De Cédula</t>
   </si>
   <si>
-    <t>SOLTERO</t>
-  </si>
-  <si>
-    <t>NT</t>
-  </si>
-  <si>
-    <t>HONDUREÑO</t>
-  </si>
-  <si>
-    <t>DOC EXT. 0508-1948-00064</t>
+    <t>Casado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMA DE CASA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUATEMALTECA </t>
+  </si>
+  <si>
+    <t>1749600650101</t>
   </si>
   <si>
     <t>Nombre del Cónyugue</t>
@@ -133,12 +139,24 @@
     <t xml:space="preserve">Dirección si difiere a la indicada </t>
   </si>
   <si>
+    <t xml:space="preserve">SERGIO AGUIRRE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDEM </t>
+  </si>
+  <si>
     <t>Nombre del Padre:</t>
   </si>
   <si>
     <t xml:space="preserve">Nombre de la Madre: </t>
   </si>
   <si>
+    <t>AJCHE NESTOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IXCOT CLARA LUZ </t>
+  </si>
+  <si>
     <t>En caso de emergencia notificar a :</t>
   </si>
   <si>
@@ -148,16 +166,10 @@
     <t>Dirección</t>
   </si>
   <si>
-    <t>GUILLERMO SANTOS</t>
-  </si>
-  <si>
-    <t>ENCARGADO</t>
-  </si>
-  <si>
-    <t>CORINTO HONDURAS</t>
-  </si>
-  <si>
-    <t>97431622</t>
+    <t xml:space="preserve">ESPOSO </t>
+  </si>
+  <si>
+    <t>30466156</t>
   </si>
   <si>
     <t xml:space="preserve">Otras Hospitalizaciones </t>
@@ -182,6 +194,15 @@
   </si>
   <si>
     <t>Dias de estancia</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>13:53:3</t>
+  </si>
+  <si>
+    <t>CIRUGIA AMBULATORIA</t>
   </si>
   <si>
     <t xml:space="preserve">IMPRESIÓN CLINICA DE INGRESO </t>
@@ -1121,25 +1142,25 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1156,91 +1177,91 @@
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K9" s="10"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K11" s="10"/>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -1248,20 +1269,20 @@
     </row>
     <row r="14" ht="21.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1269,14 +1290,14 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -1286,14 +1307,14 @@
     </row>
     <row r="16" ht="12" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="13" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -1303,14 +1324,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -1320,14 +1341,14 @@
     </row>
     <row r="18" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="22" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
@@ -1337,18 +1358,18 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="24" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="24" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="9" t="s">
@@ -1358,35 +1379,35 @@
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K20" s="7"/>
     </row>
     <row r="21" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="25" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -1396,14 +1417,14 @@
     </row>
     <row r="22" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1413,39 +1434,39 @@
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="28" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="18" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="31" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K23" s="31"/>
     </row>
     <row r="24" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="13"/>
@@ -1457,7 +1478,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -1498,7 +1519,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -1509,7 +1530,7 @@
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
       <c r="J28" s="34" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="K28" s="34"/>
     </row>
@@ -1541,7 +1562,7 @@
     </row>
     <row r="31" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -1552,7 +1573,7 @@
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
       <c r="J31" s="40" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="K31" s="40"/>
     </row>
@@ -1597,7 +1618,7 @@
     </row>
     <row r="35" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -1608,7 +1629,7 @@
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
       <c r="J35" s="40" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="K35" s="40"/>
     </row>
@@ -1641,46 +1662,46 @@
     </row>
     <row r="38" ht="24" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D38" s="44"/>
       <c r="E38" s="44" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="44" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
       <c r="J38" s="45" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K38" s="45"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="46"/>
       <c r="B39" s="47" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D39" s="47"/>
       <c r="E39" s="47"/>
       <c r="F39" s="47" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
       <c r="I39" s="34" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="J39" s="34"/>
       <c r="K39" s="34"/>
@@ -1700,7 +1721,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B41" s="49"/>
       <c r="C41" s="49"/>
@@ -1709,13 +1730,13 @@
       <c r="F41" s="49"/>
       <c r="G41" s="49"/>
       <c r="H41" s="47" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K41" s="50"/>
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="51" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -1730,7 +1751,7 @@
     </row>
     <row r="43" ht="18.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>

--- a/reportes/RI10.10.2.67.xlsx
+++ b/reportes/RI10.10.2.67.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="84">
   <si>
     <t xml:space="preserve">HOSPITAL GENERAL SAN JUAN DE DIOS </t>
   </si>
@@ -40,19 +40,19 @@
     <t>No. Expediente Clinico</t>
   </si>
   <si>
-    <t>AJCHE</t>
-  </si>
-  <si>
-    <t>IXCOT</t>
-  </si>
-  <si>
-    <t>CORINA</t>
-  </si>
-  <si>
-    <t>ISABEL</t>
-  </si>
-  <si>
-    <t>2008-74954/201757694</t>
+    <t xml:space="preserve">CASTELLANOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LÓPEZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRANCISCO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTONIO </t>
+  </si>
+  <si>
+    <t>2017-0034279/201773430</t>
   </si>
   <si>
     <t xml:space="preserve">Dirección actual </t>
@@ -70,24 +70,30 @@
     <t>Teléfono</t>
   </si>
   <si>
-    <t>10 AVE. B 27-46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COL. BETHANIA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUATEMALA </t>
+    <t>4 AV. A 29-39 RESD. VOULEVART SUR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIUDAD SAN CRISTOBAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIXCO </t>
+  </si>
+  <si>
+    <t>GUATEMALA</t>
+  </si>
+  <si>
+    <t>2443-6964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dirección habitual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teléfono </t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t xml:space="preserve">Dirección habitual </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teléfono </t>
-  </si>
-  <si>
     <t>Fecha de nacimiento (Día     Mes     Año )</t>
   </si>
   <si>
@@ -100,13 +106,16 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t>28/5/1969</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>FEMENINO</t>
+    <t>1938-08-11</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>BELICE</t>
+  </si>
+  <si>
+    <t>Masculino</t>
   </si>
   <si>
     <t>Estado Civil</t>
@@ -121,16 +130,16 @@
     <t>No. De Cédula</t>
   </si>
   <si>
-    <t>Casado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMA DE CASA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUATEMALTECA </t>
-  </si>
-  <si>
-    <t>1749600650101</t>
+    <t>Soltero</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>GUATEMALTECA</t>
+  </si>
+  <si>
+    <t>2337250631703</t>
   </si>
   <si>
     <t>Nombre del Cónyugue</t>
@@ -139,10 +148,7 @@
     <t xml:space="preserve">Dirección si difiere a la indicada </t>
   </si>
   <si>
-    <t xml:space="preserve">SERGIO AGUIRRE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDEM </t>
+    <t xml:space="preserve">ANA MARIA SANTA CRUZ </t>
   </si>
   <si>
     <t>Nombre del Padre:</t>
@@ -151,10 +157,10 @@
     <t xml:space="preserve">Nombre de la Madre: </t>
   </si>
   <si>
-    <t>AJCHE NESTOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IXCOT CLARA LUZ </t>
+    <t xml:space="preserve">FRANCISCO PEDRO CASTELLANOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUFINA LOPEZ </t>
   </si>
   <si>
     <t>En caso de emergencia notificar a :</t>
@@ -166,10 +172,10 @@
     <t>Dirección</t>
   </si>
   <si>
-    <t xml:space="preserve">ESPOSO </t>
-  </si>
-  <si>
-    <t>30466156</t>
+    <t xml:space="preserve">ALVARO CASTELLANOS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIJO </t>
   </si>
   <si>
     <t xml:space="preserve">Otras Hospitalizaciones </t>
@@ -196,13 +202,13 @@
     <t>Dias de estancia</t>
   </si>
   <si>
-    <t>10/11/2017</t>
-  </si>
-  <si>
-    <t>13:53:3</t>
-  </si>
-  <si>
-    <t>CIRUGIA AMBULATORIA</t>
+    <t>20/11/2017</t>
+  </si>
+  <si>
+    <t>13:20:15</t>
+  </si>
+  <si>
+    <t>CL. 27</t>
   </si>
   <si>
     <t xml:space="preserve">IMPRESIÓN CLINICA DE INGRESO </t>
@@ -1150,17 +1156,17 @@
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1177,91 +1183,91 @@
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K9" s="10"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K11" s="10"/>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -1269,20 +1275,20 @@
     </row>
     <row r="14" ht="21.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1290,14 +1296,14 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -1307,14 +1313,14 @@
     </row>
     <row r="16" ht="12" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="13" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -1324,14 +1330,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -1341,14 +1347,14 @@
     </row>
     <row r="18" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
@@ -1358,18 +1364,18 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="24" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="9" t="s">
@@ -1379,35 +1385,35 @@
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="7" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="K20" s="7"/>
     </row>
     <row r="21" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -1417,14 +1423,14 @@
     </row>
     <row r="22" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1434,39 +1440,39 @@
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K23" s="31"/>
     </row>
     <row r="24" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="13"/>
@@ -1478,7 +1484,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -1519,7 +1525,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -1530,7 +1536,7 @@
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
       <c r="J28" s="34" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K28" s="34"/>
     </row>
@@ -1562,7 +1568,7 @@
     </row>
     <row r="31" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -1573,7 +1579,7 @@
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
       <c r="J31" s="40" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K31" s="40"/>
     </row>
@@ -1618,7 +1624,7 @@
     </row>
     <row r="35" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -1629,7 +1635,7 @@
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
       <c r="J35" s="40" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K35" s="40"/>
     </row>
@@ -1662,46 +1668,46 @@
     </row>
     <row r="38" ht="24" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D38" s="44"/>
       <c r="E38" s="44" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="44" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
       <c r="J38" s="45" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K38" s="45"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="46"/>
       <c r="B39" s="47" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D39" s="47"/>
       <c r="E39" s="47"/>
       <c r="F39" s="47" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
       <c r="I39" s="34" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J39" s="34"/>
       <c r="K39" s="34"/>
@@ -1721,7 +1727,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41" s="49"/>
       <c r="C41" s="49"/>
@@ -1730,13 +1736,13 @@
       <c r="F41" s="49"/>
       <c r="G41" s="49"/>
       <c r="H41" s="47" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K41" s="50"/>
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="51" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -1751,7 +1757,7 @@
     </row>
     <row r="43" ht="18.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>

--- a/reportes/RI10.10.2.67.xlsx
+++ b/reportes/RI10.10.2.67.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
   <si>
     <t xml:space="preserve">HOSPITAL GENERAL SAN JUAN DE DIOS </t>
   </si>
@@ -40,19 +40,19 @@
     <t>No. Expediente Clinico</t>
   </si>
   <si>
-    <t xml:space="preserve">CASTELLANOS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LÓPEZ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRANCISCO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTONIO </t>
-  </si>
-  <si>
-    <t>2017-0034279/201773430</t>
+    <t>NAJARRO</t>
+  </si>
+  <si>
+    <t>LEMUS</t>
+  </si>
+  <si>
+    <t>BERTILA</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>/201769482</t>
   </si>
   <si>
     <t xml:space="preserve">Dirección actual </t>
@@ -70,19 +70,7 @@
     <t>Teléfono</t>
   </si>
   <si>
-    <t>4 AV. A 29-39 RESD. VOULEVART SUR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIUDAD SAN CRISTOBAL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIXCO </t>
-  </si>
-  <si>
-    <t>GUATEMALA</t>
-  </si>
-  <si>
-    <t>2443-6964</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Dirección habitual </t>
@@ -91,9 +79,6 @@
     <t xml:space="preserve">Teléfono </t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Fecha de nacimiento (Día     Mes     Año )</t>
   </si>
   <si>
@@ -106,16 +91,16 @@
     <t>Sexo</t>
   </si>
   <si>
-    <t>1938-08-11</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>BELICE</t>
-  </si>
-  <si>
-    <t>Masculino</t>
+    <t>1939-09-13</t>
+  </si>
+  <si>
+    <t>78AÑOS</t>
+  </si>
+  <si>
+    <t>JUTIAPA</t>
+  </si>
+  <si>
+    <t>FEMENINO</t>
   </si>
   <si>
     <t>Estado Civil</t>
@@ -130,16 +115,16 @@
     <t>No. De Cédula</t>
   </si>
   <si>
-    <t>Soltero</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>CASADO</t>
+  </si>
+  <si>
+    <t>AMA DE CASA</t>
   </si>
   <si>
     <t>GUATEMALTECA</t>
   </si>
   <si>
-    <t>2337250631703</t>
+    <t>SIN DOC</t>
   </si>
   <si>
     <t>Nombre del Cónyugue</t>
@@ -148,21 +133,12 @@
     <t xml:space="preserve">Dirección si difiere a la indicada </t>
   </si>
   <si>
-    <t xml:space="preserve">ANA MARIA SANTA CRUZ </t>
-  </si>
-  <si>
     <t>Nombre del Padre:</t>
   </si>
   <si>
     <t xml:space="preserve">Nombre de la Madre: </t>
   </si>
   <si>
-    <t xml:space="preserve">FRANCISCO PEDRO CASTELLANOS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RUFINA LOPEZ </t>
-  </si>
-  <si>
     <t>En caso de emergencia notificar a :</t>
   </si>
   <si>
@@ -172,10 +148,16 @@
     <t>Dirección</t>
   </si>
   <si>
-    <t xml:space="preserve">ALVARO CASTELLANOS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HIJO </t>
+    <t>CARLOS NAJARRO</t>
+  </si>
+  <si>
+    <t>HIJO</t>
+  </si>
+  <si>
+    <t>6 CALLE 0-54 CIUDAD REAL Z 12</t>
+  </si>
+  <si>
+    <t>58560929</t>
   </si>
   <si>
     <t xml:space="preserve">Otras Hospitalizaciones </t>
@@ -202,13 +184,10 @@
     <t>Dias de estancia</t>
   </si>
   <si>
-    <t>20/11/2017</t>
-  </si>
-  <si>
-    <t>13:20:15</t>
-  </si>
-  <si>
-    <t>CL. 27</t>
+    <t>23/11/2017</t>
+  </si>
+  <si>
+    <t>9:2:1</t>
   </si>
   <si>
     <t xml:space="preserve">IMPRESIÓN CLINICA DE INGRESO </t>
@@ -1148,25 +1127,25 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1183,91 +1162,91 @@
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K9" s="10"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K11" s="10"/>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -1275,20 +1254,20 @@
     </row>
     <row r="14" ht="21.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G14" s="13"/>
       <c r="H14" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1296,14 +1275,14 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -1313,14 +1292,14 @@
     </row>
     <row r="16" ht="12" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="13" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -1330,14 +1309,14 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="18" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -1347,14 +1326,14 @@
     </row>
     <row r="18" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="22" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
@@ -1364,18 +1343,18 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="24" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="24" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="9" t="s">
@@ -1385,35 +1364,35 @@
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="13" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="13" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="7" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="K20" s="7"/>
     </row>
     <row r="21" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="25" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
@@ -1423,14 +1402,14 @@
     </row>
     <row r="22" ht="12.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1440,39 +1419,39 @@
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="28" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="18" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="31" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="K23" s="31"/>
     </row>
     <row r="24" ht="16.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="13"/>
@@ -1484,7 +1463,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
@@ -1525,7 +1504,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -1536,7 +1515,7 @@
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
       <c r="J28" s="34" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="K28" s="34"/>
     </row>
@@ -1568,7 +1547,7 @@
     </row>
     <row r="31" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -1579,7 +1558,7 @@
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
       <c r="J31" s="40" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K31" s="40"/>
     </row>
@@ -1624,7 +1603,7 @@
     </row>
     <row r="35" ht="21" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -1635,7 +1614,7 @@
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
       <c r="J35" s="40" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="K35" s="40"/>
     </row>
@@ -1668,46 +1647,46 @@
     </row>
     <row r="38" ht="24" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C38" s="44" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D38" s="44"/>
       <c r="E38" s="44" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="44" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H38" s="44"/>
       <c r="I38" s="44"/>
       <c r="J38" s="45" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="K38" s="45"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="46"/>
       <c r="B39" s="47" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D39" s="47"/>
       <c r="E39" s="47"/>
       <c r="F39" s="47" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
       <c r="I39" s="34" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="J39" s="34"/>
       <c r="K39" s="34"/>
@@ -1727,7 +1706,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B41" s="49"/>
       <c r="C41" s="49"/>
@@ -1736,13 +1715,13 @@
       <c r="F41" s="49"/>
       <c r="G41" s="49"/>
       <c r="H41" s="47" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="K41" s="50"/>
     </row>
     <row r="42" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="51" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B42" s="51"/>
       <c r="C42" s="51"/>
@@ -1757,7 +1736,7 @@
     </row>
     <row r="43" ht="18.75" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>
